--- a/Auswertung.xlsx
+++ b/Auswertung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Iterative </t>
   </si>
@@ -32,55 +32,16 @@
     <t>Recursive</t>
   </si>
   <si>
-    <t>Testword</t>
+    <t>0.012478359</t>
   </si>
   <si>
-    <t xml:space="preserve">xanax   </t>
+    <t>0.020958359</t>
   </si>
   <si>
-    <t xml:space="preserve">handnah   </t>
+    <t>Problem deux valeures avec 5 mots</t>
   </si>
   <si>
-    <t xml:space="preserve">lagerregal   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">detartrated   </t>
-  </si>
-  <si>
-    <t>seegardedragees</t>
-  </si>
-  <si>
-    <t>dienstmannamtsneid</t>
-  </si>
-  <si>
-    <t>SAIPPUAKIVIKAUPPIAS</t>
-  </si>
-  <si>
-    <t>SWS</t>
-  </si>
-  <si>
-    <t>QWWQ</t>
-  </si>
-  <si>
-    <t>WESEW</t>
-  </si>
-  <si>
-    <t>HiHiiHiH</t>
-  </si>
-  <si>
-    <t>HoHoHoHoH</t>
-  </si>
-  <si>
-    <t>SASASASASASASASASASASAS</t>
-  </si>
-  <si>
-    <t>SASASASASASASASASASASASASASASASASASASASASASAS</t>
-  </si>
-  <si>
-    <t>SASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASAS</t>
-  </si>
-  <si>
-    <t>SASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASAS</t>
+    <t>Wortlänge</t>
   </si>
 </sst>
 </file>
@@ -88,7 +49,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.E+00"/>
+    <numFmt numFmtId="164" formatCode="0.E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -156,12 +117,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -218,7 +182,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> Rekursive Funktion vs Iterative Function (Palindrome Suche)</a:t>
+              <a:t> Rekursive Funktion vs Iterative Funktion (Palindrome Suche)</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
@@ -286,86 +250,93 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$B$3:$B$18</c15:sqref>
+                    <c15:sqref>Tabelle1!$B$3:$B$20</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Tabelle1!$B$4,Tabelle1!$B$6:$B$18)</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
+              <c:f>(Tabelle1!$B$4,Tabelle1!$B$6:$B$20)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>QWWQ</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>WESEW</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>handnah   </c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>HiHiiHiH</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>HoHoHoHoH</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>lagerregal   </c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>detartrated   </c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>seegardedragees</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>dienstmannamtsneid</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SAIPPUAKIVIKAUPPIAS</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>SASASASASASASASASASASAS</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>SASASASASASASASASASASASASASASASASASASASASASAS</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>SASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASAS</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>SASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASAS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$C$3:$C$18</c15:sqref>
+                    <c15:sqref>Tabelle1!$C$3:$C$20</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Tabelle1!$C$4,Tabelle1!$C$6:$C$18)</c:f>
+              <c:f>(Tabelle1!$C$4,Tabelle1!$C$6:$C$20)</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1.6419999999999999E-6</c:v>
+                  <c:v>1.641E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.641E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.641E-6</c:v>
+                  <c:v>2.052E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4609999999999998E-6</c:v>
+                  <c:v>7.7950000000000008E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.0509999999999999E-6</c:v>
@@ -374,28 +345,34 @@
                   <c:v>2.052E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>2.052E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4619999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4619999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2309999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2309999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4619999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2.0509999999999999E-6</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>2.8720000000000002E-6</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.7440000000000004E-6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.7429999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.7429999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.9739999999999996E-6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2717999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.6665999999999998E-5</c:v>
+                <c:pt idx="14">
+                  <c:v>7.0851200000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5199999999999996E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -434,116 +411,129 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$B$3:$B$18</c15:sqref>
+                    <c15:sqref>Tabelle1!$B$3:$B$20</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Tabelle1!$B$4,Tabelle1!$B$6:$B$18)</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
+              <c:f>(Tabelle1!$B$4,Tabelle1!$B$6:$B$20)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>QWWQ</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>WESEW</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>handnah   </c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>HiHiiHiH</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>HoHoHoHoH</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>lagerregal   </c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>detartrated   </c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>seegardedragees</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>dienstmannamtsneid</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SAIPPUAKIVIKAUPPIAS</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>SASASASASASASASASASASAS</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>SASASASASASASASASASASASASASASASASASASASASASAS</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>SASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASAS</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>SASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASASAS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$D$3:$D$18</c15:sqref>
+                    <c15:sqref>Tabelle1!$D$3:$D$20</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Tabelle1!$D$4,Tabelle1!$D$6:$D$18)</c:f>
+              <c:f>(Tabelle1!$D$4,Tabelle1!$D$6:$D$20)</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1.641E-6</c:v>
+                  <c:v>2.052E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2099999999999995E-7</c:v>
+                  <c:v>1.2310000000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.641E-6</c:v>
+                  <c:v>2.4619999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.641E-6</c:v>
+                  <c:v>1.1487E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.641E-6</c:v>
+                  <c:v>2.0509999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.0509999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.641E-6</c:v>
+                  <c:v>2.0509999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.E+00">
+                  <c:v>2.4609999999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.E+00">
+                  <c:v>2.8720000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.2099999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.E+00">
+                  <c:v>1.2309999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>2.4619999999999999E-6</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.E+00">
-                  <c:v>2.8710000000000001E-6</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
+                  <c:v>2.0509999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>3.692E-6</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0.E+00">
-                  <c:v>3.693E-6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.2050000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2152999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.2001000000000001E-5</c:v>
+                <c:pt idx="14">
+                  <c:v>8.3651199999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.5723099999999998E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,13 +585,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Benutzte</a:t>
+                  <a:t>Wortlänge</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> Wörter</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1433,16 +1418,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1409700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>8099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1770,7 +1755,7 @@
   <dimension ref="B1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,12 +1763,13 @@
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
@@ -1793,85 +1779,91 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2">
-        <v>7.6430699999999999E-4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6.5640000000000002E-6</v>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>11</v>
+      <c r="B4">
+        <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>1.6419999999999999E-6</v>
+        <v>1.641E-6</v>
       </c>
       <c r="D4" s="1">
-        <v>1.641E-6</v>
+        <v>2.052E-6</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
+      <c r="B5">
+        <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>1.6410000000000001E-3</v>
+        <v>1.2310000000000001E-3</v>
       </c>
       <c r="D5" s="1">
         <v>1.2309999999999999E-6</v>
       </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>12</v>
+      <c r="B6">
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>1.641E-6</v>
       </c>
       <c r="D6" s="1">
-        <v>8.2099999999999995E-7</v>
-      </c>
+        <v>1.2310000000000001E-7</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>4</v>
+      <c r="B7">
+        <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>1.641E-6</v>
+        <v>2.052E-6</v>
       </c>
       <c r="D7" s="1">
-        <v>1.641E-6</v>
+        <v>2.4619999999999999E-6</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>13</v>
+      <c r="B8">
+        <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>2.4609999999999998E-6</v>
+        <v>7.7950000000000008E-6</v>
       </c>
       <c r="D8" s="1">
-        <v>1.641E-6</v>
+        <v>1.1487E-5</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>14</v>
+      <c r="B9">
+        <v>9</v>
       </c>
       <c r="C9" s="1">
         <v>2.0509999999999999E-6</v>
       </c>
       <c r="D9" s="1">
-        <v>1.641E-6</v>
+        <v>2.0509999999999999E-6</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>5</v>
+      <c r="B10">
+        <v>10</v>
       </c>
       <c r="C10" s="1">
         <v>2.052E-6</v>
@@ -1881,98 +1873,120 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>6</v>
+      <c r="B11">
+        <v>11</v>
       </c>
       <c r="C11" s="1">
+        <v>2.052E-6</v>
+      </c>
+      <c r="D11" s="1">
         <v>2.0509999999999999E-6</v>
       </c>
-      <c r="D11" s="1">
-        <v>1.641E-6</v>
-      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>7</v>
+      <c r="B12">
+        <v>15</v>
       </c>
       <c r="C12" s="1">
-        <v>2.8720000000000002E-6</v>
+        <v>2.4619999999999999E-6</v>
       </c>
       <c r="D12" s="2">
-        <v>2.4619999999999999E-6</v>
+        <v>2.4609999999999998E-6</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>8</v>
+      <c r="B13">
+        <v>18</v>
       </c>
       <c r="C13" s="1">
-        <v>5.7440000000000004E-6</v>
+        <v>2.4619999999999999E-6</v>
       </c>
       <c r="D13" s="2">
-        <v>2.8710000000000001E-6</v>
+        <v>2.8720000000000002E-6</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>9</v>
+      <c r="B14">
+        <v>19</v>
       </c>
       <c r="C14" s="1">
-        <v>5.7429999999999999E-6</v>
+        <v>1.2309999999999999E-6</v>
       </c>
       <c r="D14" s="1">
+        <v>8.2099999999999995E-7</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.2309999999999999E-6</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.2309999999999999E-6</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.4619999999999999E-6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.4619999999999999E-6</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>67</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.0509999999999999E-6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.0509999999999999E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>133</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.8720000000000002E-6</v>
+      </c>
+      <c r="D18" s="1">
         <v>3.692E-6</v>
       </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5.7429999999999999E-6</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3.693E-6</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1">
-        <v>6.9739999999999996E-6</v>
-      </c>
-      <c r="D16" s="1">
-        <v>8.2050000000000002E-6</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1.2717999999999999E-5</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2.2152999999999999E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2.6665999999999998E-5</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3.2001000000000001E-5</v>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>200</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7.0851200000000001E-4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8.3651199999999998E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>265</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7.5199999999999996E-4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6.5723099999999998E-4</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -2040,6 +2054,9 @@
       <c r="E37" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F5:G6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
